--- a/results/nf/15x15/nf_15x15_True_2_500.xlsx
+++ b/results/nf/15x15/nf_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:O13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,17 +471,42 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Experiment_Time</t>
+          <t>Avg_Experiment_Time</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
+          <t>Std_Total_Rounds</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Cost</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Expl_Eff</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Round_Time</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Agent_Step_Time</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Std_Experiment_Time</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
           <t>Obs_Prob</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Std_Total_Rounds</t>
         </is>
       </c>
     </row>
@@ -493,28 +518,43 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>87.93000000000001</v>
+        <v>54.57</v>
       </c>
       <c r="D2" t="n">
-        <v>87.93000000000001</v>
+        <v>54.57</v>
       </c>
       <c r="E2" t="n">
-        <v>1.95778</v>
+        <v>3.128393519999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09553</v>
+        <v>0.16071982</v>
       </c>
       <c r="G2" t="n">
-        <v>0.09553</v>
+        <v>0.16071982</v>
       </c>
       <c r="H2" t="n">
-        <v>8.24525</v>
+        <v>8.730860059999999</v>
       </c>
       <c r="I2" t="n">
-        <v>0.85</v>
+        <v>5.502513544792166</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94576</v>
+        <v>5.502513544792166</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.316143681776283</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.01865219949656661</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.01865219949656661</v>
+      </c>
+      <c r="N2" t="n">
+        <v>1.048595980214898</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="3">
@@ -525,28 +565,43 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>54.57</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>54.57</v>
+        <v>87.93000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>3.12839</v>
+        <v>1.95778016</v>
       </c>
       <c r="F3" t="n">
-        <v>0.16072</v>
+        <v>0.09553492</v>
       </c>
       <c r="G3" t="n">
-        <v>0.16072</v>
+        <v>0.09553492</v>
       </c>
       <c r="H3" t="n">
-        <v>8.73086</v>
+        <v>8.245246139999999</v>
       </c>
       <c r="I3" t="n">
-        <v>0.15</v>
+        <v>11.95772027387731</v>
       </c>
       <c r="J3" t="n">
-        <v>5.49701</v>
+        <v>11.95772027387731</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0.2686110744317687</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.016365110726536</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.016365110726536</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.8277653025116386</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="4">
@@ -563,22 +618,37 @@
         <v>65.556</v>
       </c>
       <c r="E4" t="n">
-        <v>2.63785</v>
+        <v>2.63784808</v>
       </c>
       <c r="F4" t="n">
-        <v>0.24415</v>
+        <v>0.24414562</v>
       </c>
       <c r="G4" t="n">
-        <v>0.12207</v>
+        <v>0.12207272</v>
       </c>
       <c r="H4" t="n">
-        <v>3.96776</v>
+        <v>3.9677613</v>
       </c>
       <c r="I4" t="n">
+        <v>5.131209860184878</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.23720982152167</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0.3923558174934527</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0.03910229124459018</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.01955125644706544</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.696837848454709</v>
+      </c>
+      <c r="O4" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J4" t="n">
-        <v>5.12608</v>
       </c>
     </row>
     <row r="5">
@@ -595,22 +665,37 @@
         <v>96.09999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>1.80626</v>
+        <v>1.80626002</v>
       </c>
       <c r="F5" t="n">
-        <v>0.14646</v>
+        <v>0.1464552</v>
       </c>
       <c r="G5" t="n">
-        <v>0.07323</v>
+        <v>0.07322764000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>3.51306</v>
+        <v>3.51306394</v>
       </c>
       <c r="I5" t="n">
+        <v>8.537442230532477</v>
+      </c>
+      <c r="J5" t="n">
+        <v>15.84196755052047</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2963210268653317</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.02841550228484797</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.01420768807481578</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.4646167245799436</v>
+      </c>
+      <c r="O5" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J5" t="n">
-        <v>8.5289</v>
       </c>
     </row>
     <row r="6">
@@ -621,28 +706,43 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>27.332</v>
+        <v>19.674</v>
       </c>
       <c r="D6" t="n">
-        <v>100.198</v>
+        <v>78.604</v>
       </c>
       <c r="E6" t="n">
-        <v>1.73004</v>
+        <v>2.22525534</v>
       </c>
       <c r="F6" t="n">
-        <v>0.19714</v>
+        <v>0.3115481999999999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04928</v>
+        <v>0.07788686</v>
       </c>
       <c r="H6" t="n">
-        <v>1.31417</v>
+        <v>1.5121634</v>
       </c>
       <c r="I6" t="n">
-        <v>0.85</v>
+        <v>3.764048368477812</v>
       </c>
       <c r="J6" t="n">
-        <v>5.44957</v>
+        <v>15.03766760151944</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.4146762848006098</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.07365618695067118</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.01841417795721764</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.3839339673462149</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -653,28 +753,43 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>19.674</v>
+        <v>27.332</v>
       </c>
       <c r="D7" t="n">
-        <v>78.604</v>
+        <v>100.198</v>
       </c>
       <c r="E7" t="n">
-        <v>2.22526</v>
+        <v>1.73004372</v>
       </c>
       <c r="F7" t="n">
-        <v>0.31155</v>
+        <v>0.19713562</v>
       </c>
       <c r="G7" t="n">
-        <v>0.07789</v>
+        <v>0.049284</v>
       </c>
       <c r="H7" t="n">
-        <v>1.51216</v>
+        <v>1.3141698</v>
       </c>
       <c r="I7" t="n">
-        <v>0.15</v>
+        <v>5.455024342856989</v>
       </c>
       <c r="J7" t="n">
-        <v>3.76028</v>
+        <v>16.10831311785955</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.2783568010981531</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.04348207049260935</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.01087051025418645</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.2553811190379629</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="8">
@@ -691,22 +806,37 @@
         <v>81.18600000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>2.18102</v>
+        <v>2.18101796</v>
       </c>
       <c r="F8" t="n">
-        <v>0.33047</v>
+        <v>0.33046818</v>
       </c>
       <c r="G8" t="n">
-        <v>0.05508</v>
+        <v>0.05507815999999999</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7413</v>
+        <v>0.7413027799999999</v>
       </c>
       <c r="I8" t="n">
+        <v>2.785303543900256</v>
+      </c>
+      <c r="J8" t="n">
+        <v>16.68965227276986</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.5109835729405287</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.09686591800126636</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.01614413893207427</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.2534691562569671</v>
+      </c>
+      <c r="O8" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2.78252</v>
       </c>
     </row>
     <row r="9">
@@ -723,22 +853,37 @@
         <v>98.392</v>
       </c>
       <c r="E9" t="n">
-        <v>1.76528</v>
+        <v>1.7652824</v>
       </c>
       <c r="F9" t="n">
-        <v>0.21811</v>
+        <v>0.21811254</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03635</v>
+        <v>0.036352</v>
       </c>
       <c r="H9" t="n">
-        <v>0.69507</v>
+        <v>0.6950704000000001</v>
       </c>
       <c r="I9" t="n">
+        <v>4.310250168264721</v>
+      </c>
+      <c r="J9" t="n">
+        <v>16.0399781108202</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.3008167468746387</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.05256429250204821</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.008760835901407055</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.1924025233988903</v>
+      </c>
+      <c r="O9" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J9" t="n">
-        <v>4.30594</v>
       </c>
     </row>
     <row r="10">
@@ -749,28 +894,43 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>15.076</v>
+        <v>9.73</v>
       </c>
       <c r="D10" t="n">
-        <v>92.94199999999999</v>
+        <v>77.634</v>
       </c>
       <c r="E10" t="n">
-        <v>1.87937</v>
+        <v>2.306508</v>
       </c>
       <c r="F10" t="n">
-        <v>0.21291</v>
+        <v>0.32872708</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02661</v>
+        <v>0.04109106000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0.39581</v>
+        <v>0.40209858</v>
       </c>
       <c r="I10" t="n">
-        <v>0.85</v>
+        <v>2.206998342402353</v>
       </c>
       <c r="J10" t="n">
-        <v>3.79134</v>
+        <v>17.59053432376604</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.6076541539804525</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.1008925755835848</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.01261139750266959</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.1644015861238074</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="11">
@@ -781,28 +941,43 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>9.73</v>
+        <v>15.076</v>
       </c>
       <c r="D11" t="n">
-        <v>77.634</v>
+        <v>92.94199999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>2.30651</v>
+        <v>1.87937462</v>
       </c>
       <c r="F11" t="n">
-        <v>0.32873</v>
+        <v>0.2129099</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04109</v>
+        <v>0.02661376</v>
       </c>
       <c r="H11" t="n">
-        <v>0.4021</v>
+        <v>0.39581328</v>
       </c>
       <c r="I11" t="n">
-        <v>0.15</v>
+        <v>3.795132416678006</v>
       </c>
       <c r="J11" t="n">
-        <v>2.20479</v>
+        <v>16.88457324385945</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.3455917036581322</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.05418020617598779</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.006772594505436608</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.1285770873477201</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0.85</v>
       </c>
     </row>
     <row r="12">
@@ -819,22 +994,37 @@
         <v>75.152</v>
       </c>
       <c r="E12" t="n">
-        <v>2.40879</v>
+        <v>2.40879072</v>
       </c>
       <c r="F12" t="n">
-        <v>0.31911</v>
+        <v>0.31911232</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03191</v>
+        <v>0.03191128</v>
       </c>
       <c r="H12" t="n">
-        <v>0.24486</v>
+        <v>0.24486496</v>
       </c>
       <c r="I12" t="n">
+        <v>1.922101179930907</v>
+      </c>
+      <c r="J12" t="n">
+        <v>19.1380622544109</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.6589880415188208</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.1045250294167226</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0.01045247636140697</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.1104740221524476</v>
+      </c>
+      <c r="O12" t="n">
         <v>0.15</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1.92018</v>
       </c>
     </row>
     <row r="13">
@@ -851,22 +1041,37 @@
         <v>82.482</v>
       </c>
       <c r="E13" t="n">
-        <v>2.12624</v>
+        <v>2.12623898</v>
       </c>
       <c r="F13" t="n">
-        <v>0.18772</v>
+        <v>0.18772058</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01877</v>
+        <v>0.01877218</v>
       </c>
       <c r="H13" t="n">
-        <v>0.22442</v>
+        <v>0.22441674</v>
       </c>
       <c r="I13" t="n">
+        <v>3.563376390813243</v>
+      </c>
+      <c r="J13" t="n">
+        <v>16.42660472177287</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0.4029035554545969</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.05156518642617257</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0.005156513114751597</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.08772698871082341</v>
+      </c>
+      <c r="O13" t="n">
         <v>0.85</v>
-      </c>
-      <c r="J13" t="n">
-        <v>3.55981</v>
       </c>
     </row>
   </sheetData>

--- a/results/nf/15x15/nf_15x15_True_2_500.xlsx
+++ b/results/nf/15x15/nf_15x15_True_2_500.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
